--- a/observations/orbit_plans/mtp090/nomad_mtp090_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp090/nomad_mtp090_plan_generic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp090\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5069C653-9285-491F-ABC8-04FFA74DB900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA6DAA-3014-491A-BFFF-34A3DDA615C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="542">
   <si>
     <t>#orbitType</t>
   </si>
@@ -2030,15 +2030,15 @@
   <dimension ref="A1:M342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
@@ -2093,13 +2093,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
       <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>47</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>14</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>14</v>
       </c>
@@ -2908,7 +2911,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>14</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3241,7 +3244,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3264,7 +3267,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>14</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3554,7 +3557,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>14</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>7</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3862,7 +3865,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3971,7 +3974,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>7</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4103,7 +4106,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>14</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4175,7 +4178,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14</v>
       </c>
@@ -4203,7 +4206,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4281,7 +4284,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>47</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>14</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>14</v>
       </c>
@@ -4450,7 +4453,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>14</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>14</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14</v>
       </c>
@@ -4553,7 +4556,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>47</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>14</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>28</v>
       </c>
@@ -4720,7 +4723,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4858,7 +4861,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4971,7 +4974,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -5049,7 +5052,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>14</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>14</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
@@ -5281,7 +5284,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>47</v>
       </c>
@@ -5341,7 +5344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>14</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5523,7 +5526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>14</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3</v>
       </c>
@@ -5599,7 +5602,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>14</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>47</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>14</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5751,7 +5754,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>14</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>14</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>14</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>14</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>14</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5974,7 +5977,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>14</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>14</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>14</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>14</v>
       </c>
@@ -6158,7 +6161,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>14</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1</v>
       </c>
@@ -6331,7 +6334,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>14</v>
       </c>
@@ -6345,7 +6348,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>14</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -6391,7 +6394,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>14</v>
       </c>
@@ -6500,7 +6503,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3</v>
       </c>
@@ -6549,7 +6552,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>14</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6627,7 +6630,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>14</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>14</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>14</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1</v>
       </c>
@@ -6727,7 +6730,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>14</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>14</v>
       </c>
@@ -6819,7 +6822,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>14</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>14</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1</v>
       </c>
@@ -6893,7 +6896,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>14</v>
       </c>
@@ -6939,7 +6942,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>3</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1</v>
       </c>
@@ -6988,7 +6991,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>14</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>14</v>
       </c>
@@ -7048,7 +7051,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>3</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1</v>
       </c>
@@ -7120,7 +7123,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>14</v>
       </c>
@@ -7134,7 +7137,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>14</v>
       </c>
@@ -7180,7 +7183,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="248" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>47</v>
       </c>
@@ -7223,7 +7226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>14</v>
       </c>
@@ -7237,7 +7240,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
@@ -7269,7 +7272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1</v>
       </c>
@@ -7301,7 +7304,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>3</v>
       </c>
@@ -7318,7 +7321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
@@ -7347,7 +7350,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="254" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>47</v>
       </c>
@@ -7361,7 +7364,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>14</v>
       </c>
@@ -7375,7 +7378,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>14</v>
       </c>
@@ -7389,7 +7392,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
@@ -7409,7 +7412,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>14</v>
       </c>
@@ -7457,7 +7460,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>14</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1</v>
       </c>
@@ -7570,7 +7573,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>14</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -7616,7 +7619,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>14</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>14</v>
       </c>
@@ -7644,7 +7647,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
@@ -7731,7 +7734,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7795,7 +7798,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -7827,7 +7830,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>5</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>5</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>5</v>
       </c>
@@ -7931,7 +7934,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>5</v>
       </c>
@@ -7954,7 +7957,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>5</v>
       </c>
@@ -7977,7 +7980,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>14</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>14</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>14</v>
       </c>
@@ -8019,7 +8022,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>5</v>
       </c>
@@ -8042,7 +8045,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>5</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>5</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>5</v>
       </c>
@@ -8111,7 +8114,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>3</v>
       </c>
@@ -8128,7 +8131,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>5</v>
       </c>
@@ -8151,7 +8154,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>5</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>14</v>
       </c>
@@ -8188,7 +8191,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>14</v>
       </c>
@@ -8202,7 +8205,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>14</v>
       </c>
@@ -8216,7 +8219,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>14</v>
       </c>
@@ -8230,7 +8233,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>14</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>14</v>
       </c>
@@ -8258,7 +8261,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>3</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>14</v>
       </c>
@@ -8289,7 +8292,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>14</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>14</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>14</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>14</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>14</v>
       </c>
@@ -8359,7 +8362,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>14</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>14</v>
       </c>
@@ -8401,7 +8404,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>14</v>
       </c>
@@ -8415,7 +8418,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>14</v>
       </c>
@@ -8429,7 +8432,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
       </c>
@@ -8443,7 +8446,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>14</v>
       </c>
@@ -8454,7 +8457,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>14</v>
       </c>
@@ -8465,7 +8468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>14</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
       </c>
@@ -8493,7 +8496,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>14</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>14</v>
       </c>
@@ -8521,7 +8524,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>14</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>47</v>
       </c>
@@ -8546,7 +8549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>14</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>14</v>
       </c>
@@ -8574,7 +8577,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>14</v>
       </c>
@@ -8588,7 +8591,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>14</v>
       </c>
@@ -8602,7 +8605,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>14</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>14</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>3</v>
       </c>
@@ -8647,7 +8650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>14</v>
       </c>
@@ -8661,7 +8664,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>14</v>
       </c>
@@ -8675,7 +8678,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>14</v>
       </c>
@@ -8689,7 +8692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>14</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>47</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>14</v>
       </c>
@@ -8728,7 +8731,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>14</v>
       </c>
@@ -8742,7 +8745,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>14</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>14</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>14</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>47</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>14</v>
       </c>
@@ -8812,7 +8815,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>14</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>14</v>
       </c>
@@ -8840,7 +8843,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>14</v>
       </c>
@@ -8854,7 +8857,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>3</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>14</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>14</v>
       </c>
